--- a/Assets/06.Table/NewGachaTable.xlsx
+++ b/Assets/06.Table/NewGachaTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC893D00-91D4-4B83-A501-775B66BE05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C03E012-0594-4630-8E4E-F0FBD4AC9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -781,7 +781,7 @@
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,6 +795,7 @@
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="13" width="14.5" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.375" bestFit="1" customWidth="1"/>
@@ -2599,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S22" s="2">
         <v>10</v>
@@ -2682,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2">
         <v>10</v>

--- a/Assets/06.Table/NewGachaTable.xlsx
+++ b/Assets/06.Table/NewGachaTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C03E012-0594-4630-8E4E-F0FBD4AC9FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200AAA4-20A5-4E99-BB94-47BF7E0173EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NewGachaTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -275,6 +275,20 @@
   </si>
   <si>
     <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring22</t>
+  </si>
+  <si>
+    <t>Ring23</t>
+  </si>
+  <si>
+    <t>요물 반지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물 반지1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,12 +790,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -796,6 +810,7 @@
     <col min="8" max="13" width="14.5" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="15.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.375" bestFit="1" customWidth="1"/>
@@ -2713,6 +2728,172 @@
         <v>10000000</v>
       </c>
     </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>119</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3">
+        <v>22</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>2</v>
+      </c>
+      <c r="S24" s="2">
+        <v>10</v>
+      </c>
+      <c r="T24" s="9">
+        <v>9</v>
+      </c>
+      <c r="U24" s="13">
+        <v>46</v>
+      </c>
+      <c r="V24">
+        <v>100000</v>
+      </c>
+      <c r="W24" s="13">
+        <v>46</v>
+      </c>
+      <c r="X24">
+        <v>100000</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>120</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3">
+        <v>23</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>2</v>
+      </c>
+      <c r="S25" s="2">
+        <v>10</v>
+      </c>
+      <c r="T25" s="9">
+        <v>12</v>
+      </c>
+      <c r="U25" s="13">
+        <v>46</v>
+      </c>
+      <c r="V25">
+        <v>100000</v>
+      </c>
+      <c r="W25" s="13">
+        <v>46</v>
+      </c>
+      <c r="X25">
+        <v>100000</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>10000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/NewGachaTable.xlsx
+++ b/Assets/06.Table/NewGachaTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200AAA4-20A5-4E99-BB94-47BF7E0173EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ECF572-5DA4-407F-959C-EF31A2493950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4080" yWindow="690" windowWidth="28800" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NewGachaTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -289,6 +289,16 @@
   </si>
   <si>
     <t>요물 반지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring24</t>
+  </si>
+  <si>
+    <t>Ring25</t>
+  </si>
+  <si>
+    <t>??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -419,6 +429,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -431,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,6 +494,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -790,12 +814,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2894,6 +2918,172 @@
         <v>10000000</v>
       </c>
     </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>121</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3">
+        <v>24</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>2</v>
+      </c>
+      <c r="S26" s="2">
+        <v>10</v>
+      </c>
+      <c r="T26" s="9">
+        <v>15</v>
+      </c>
+      <c r="U26" s="13">
+        <v>46</v>
+      </c>
+      <c r="V26">
+        <v>100000</v>
+      </c>
+      <c r="W26" s="13">
+        <v>46</v>
+      </c>
+      <c r="X26">
+        <v>100000</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>122</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3">
+        <v>25</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>2</v>
+      </c>
+      <c r="S27" s="2">
+        <v>10</v>
+      </c>
+      <c r="T27" s="9">
+        <v>20</v>
+      </c>
+      <c r="U27" s="13">
+        <v>46</v>
+      </c>
+      <c r="V27">
+        <v>100000</v>
+      </c>
+      <c r="W27" s="13">
+        <v>46</v>
+      </c>
+      <c r="X27">
+        <v>100000</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>10000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/NewGachaTable.xlsx
+++ b/Assets/06.Table/NewGachaTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ECF572-5DA4-407F-959C-EF31A2493950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC25A4-FB1D-4782-9227-4E9AA7ABDCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="690" windowWidth="28800" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NewGachaTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -298,7 +298,11 @@
     <t>Ring25</t>
   </si>
   <si>
-    <t>??</t>
+    <t>신물 반지4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신물 반지3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +823,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3015,7 +3019,7 @@
         <v>122</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>15</v>

--- a/Assets/06.Table/NewGachaTable.xlsx
+++ b/Assets/06.Table/NewGachaTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC25A4-FB1D-4782-9227-4E9AA7ABDCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F35EB58-C30E-4847-973F-F7C939DB4B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NewGachaTable" sheetId="1" r:id="rId1"/>
@@ -820,10 +820,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2987,13 +2987,13 @@
         <v>46</v>
       </c>
       <c r="V26">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="W26" s="13">
         <v>46</v>
       </c>
       <c r="X26">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="Y26" s="11" t="s">
         <v>72</v>
@@ -3002,7 +3002,7 @@
         <v>2</v>
       </c>
       <c r="AA26" s="12">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
@@ -3070,13 +3070,13 @@
         <v>46</v>
       </c>
       <c r="V27">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="W27" s="13">
         <v>46</v>
       </c>
       <c r="X27">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="Y27" s="11" t="s">
         <v>72</v>
@@ -3085,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="AA27" s="12">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/NewGachaTable.xlsx
+++ b/Assets/06.Table/NewGachaTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F35EB58-C30E-4847-973F-F7C939DB4B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAEABE7-3990-4B41-AE41-489E95BD4EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -304,6 +304,9 @@
   <si>
     <t>신물 반지3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayOrder</t>
   </si>
 </sst>
 </file>
@@ -818,12 +821,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="U30" sqref="U30"/>
+      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -847,7 +850,7 @@
     <col min="27" max="27" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -929,8 +932,11 @@
       <c r="AA1" t="s">
         <v>70</v>
       </c>
+      <c r="AB1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1012,8 +1018,11 @@
       <c r="AA2" s="12">
         <v>500000</v>
       </c>
+      <c r="AB2" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1095,8 +1104,11 @@
       <c r="AA3" s="12">
         <v>500000</v>
       </c>
+      <c r="AB3" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1178,8 +1190,11 @@
       <c r="AA4" s="12">
         <v>500000</v>
       </c>
+      <c r="AB4" s="11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1261,8 +1276,11 @@
       <c r="AA5" s="12">
         <v>500000</v>
       </c>
+      <c r="AB5" s="11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1344,8 +1362,11 @@
       <c r="AA6" s="12">
         <v>1000000</v>
       </c>
+      <c r="AB6" s="11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1427,8 +1448,11 @@
       <c r="AA7" s="12">
         <v>1000000</v>
       </c>
+      <c r="AB7" s="11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1510,8 +1534,11 @@
       <c r="AA8" s="12">
         <v>1000000</v>
       </c>
+      <c r="AB8" s="11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1593,8 +1620,11 @@
       <c r="AA9" s="12">
         <v>1000000</v>
       </c>
+      <c r="AB9" s="11">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1676,8 +1706,11 @@
       <c r="AA10" s="12">
         <v>2000000</v>
       </c>
+      <c r="AB10" s="11">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1759,8 +1792,11 @@
       <c r="AA11" s="12">
         <v>2000000</v>
       </c>
+      <c r="AB11" s="11">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1842,8 +1878,11 @@
       <c r="AA12" s="12">
         <v>2000000</v>
       </c>
+      <c r="AB12" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1925,8 +1964,11 @@
       <c r="AA13" s="12">
         <v>2000000</v>
       </c>
+      <c r="AB13" s="11">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2008,8 +2050,11 @@
       <c r="AA14" s="12">
         <v>3000000</v>
       </c>
+      <c r="AB14" s="11">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2091,8 +2136,11 @@
       <c r="AA15" s="12">
         <v>3000000</v>
       </c>
+      <c r="AB15" s="11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2174,8 +2222,11 @@
       <c r="AA16" s="12">
         <v>3000000</v>
       </c>
+      <c r="AB16" s="11">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2257,8 +2308,11 @@
       <c r="AA17" s="12">
         <v>3000000</v>
       </c>
+      <c r="AB17" s="11">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2340,8 +2394,11 @@
       <c r="AA18" s="12">
         <v>5000000</v>
       </c>
+      <c r="AB18" s="11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2423,8 +2480,11 @@
       <c r="AA19" s="12">
         <v>5000000</v>
       </c>
+      <c r="AB19" s="11">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -2506,8 +2566,11 @@
       <c r="AA20" s="12">
         <v>5000000</v>
       </c>
+      <c r="AB20" s="11">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -2589,8 +2652,11 @@
       <c r="AA21" s="12">
         <v>5000000</v>
       </c>
+      <c r="AB21" s="11">
+        <v>19</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2672,8 +2738,11 @@
       <c r="AA22" s="12">
         <v>10000000</v>
       </c>
+      <c r="AB22" s="11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2755,8 +2824,11 @@
       <c r="AA23" s="12">
         <v>10000000</v>
       </c>
+      <c r="AB23" s="11">
+        <v>21</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2838,8 +2910,11 @@
       <c r="AA24" s="12">
         <v>10000000</v>
       </c>
+      <c r="AB24" s="11">
+        <v>22</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2921,8 +2996,11 @@
       <c r="AA25" s="12">
         <v>10000000</v>
       </c>
+      <c r="AB25" s="11">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2981,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="T26" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U26" s="13">
         <v>46</v>
@@ -3004,8 +3082,11 @@
       <c r="AA26" s="12">
         <v>30000000</v>
       </c>
+      <c r="AB26" s="11">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3064,7 +3145,7 @@
         <v>10</v>
       </c>
       <c r="T27" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="U27" s="13">
         <v>46</v>
@@ -3086,6 +3167,9 @@
       </c>
       <c r="AA27" s="12">
         <v>30000000</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/NewGachaTable.xlsx
+++ b/Assets/06.Table/NewGachaTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAEABE7-3990-4B41-AE41-489E95BD4EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3C49A-18FF-4595-A080-CACF70017D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NewGachaTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>displayOrder</t>
+  </si>
+  <si>
+    <t>Ring26</t>
+  </si>
+  <si>
+    <t>신물 반지2</t>
+  </si>
+  <si>
+    <t>Ring27</t>
+  </si>
+  <si>
+    <t>신물 반지1</t>
   </si>
 </sst>
 </file>
@@ -821,12 +833,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
+      <selection pane="bottomLeft" activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3172,6 +3184,178 @@
         <v>25</v>
       </c>
     </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>123</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3">
+        <v>26</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
+        <v>2</v>
+      </c>
+      <c r="S28" s="2">
+        <v>10</v>
+      </c>
+      <c r="T28" s="9">
+        <v>33</v>
+      </c>
+      <c r="U28" s="13">
+        <v>46</v>
+      </c>
+      <c r="V28">
+        <v>500000</v>
+      </c>
+      <c r="W28" s="13">
+        <v>46</v>
+      </c>
+      <c r="X28">
+        <v>500000</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>50000000</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>124</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3">
+        <v>27</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>2</v>
+      </c>
+      <c r="S29" s="2">
+        <v>10</v>
+      </c>
+      <c r="T29" s="9">
+        <v>45</v>
+      </c>
+      <c r="U29" s="13">
+        <v>46</v>
+      </c>
+      <c r="V29">
+        <v>500000</v>
+      </c>
+      <c r="W29" s="13">
+        <v>46</v>
+      </c>
+      <c r="X29">
+        <v>500000</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>50000000</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
